--- a/biology/Médecine/Eugène_Richard/Eugène_Richard.xlsx
+++ b/biology/Médecine/Eugène_Richard/Eugène_Richard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Richard</t>
+          <t>Eugène_Richard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eugène Richard, né à Yébleron le 7 novembre 1867 et mort à Rouen le 25 septembre 1935, est un homme politique français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Richard</t>
+          <t>Eugène_Richard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Richard fait ses études à l'Institution ecclésiastique d'Yvetot. Il est ensuite pharmacien à Yvetot jusqu'en 1924 puis professeur à l'école de médecine et de pharmacie de Rouen. Il est membre de la Société industrielle de Rouen à partir de 1916. Professeur également à l'école supérieure des sciences, il eut une carrière politique tardive dans les rangs du parti radical-socialiste. Il entra au conseil municipal de Rouen en mai 1925 ainsi qu'au Conseil général en octobre 1928.
 Premier adjoint de Georges Métayer en mai 1929, chargé de l'instruction et des beaux-arts, c'est lui qui organise les fêtes Jeanne d'Arc de 1931. Il est nommé chevalier de la Légion d'honneur la même année.
-Élu maire le 17 mai 1935, il meurt 4 mois plus tard à son domicile du no 58 boulevard de l'Yser après une courte maladie[1]. Ses obsèques sont célébrées dans l'église Saint-Romain de Rouen et il est inhumé au cimetière monumental de Rouen[2].
+Élu maire le 17 mai 1935, il meurt 4 mois plus tard à son domicile du no 58 boulevard de l'Yser après une courte maladie. Ses obsèques sont célébrées dans l'église Saint-Romain de Rouen et il est inhumé au cimetière monumental de Rouen.
 Son frère, Marcel Richard, a été maire d'Yvetot.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Richard</t>
+          <t>Eugène_Richard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (11 novembre 1931)[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (11 novembre 1931)
  Officier de l'Instruction publique
  Chevalier de l'ordre du Mérite agricole
  Médaille commémorative de la guerre 1914-1918
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Richard</t>
+          <t>Eugène_Richard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Précis d'hygiène appliquée, Paris, Doin, 1891 (OCLC 490513496)
 Eugène Richard, Georges Métayer et Jean Mistler, Cinquantenaire du Théâtre des Arts : Rouen 1932, Rouen, Lecerf, 1933 (OCLC 461579613)</t>
